--- a/admon/Lideres de proyecto.xlsx
+++ b/admon/Lideres de proyecto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="150">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>sug.manu@gmail.com</t>
-  </si>
-  <si>
-    <t>(55) 1798 8195</t>
   </si>
   <si>
     <t>(55) 1306 7236</t>
@@ -1003,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1129,7 +1126,7 @@
         <v>55000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1137,10 +1134,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>104</v>
@@ -1150,632 +1147,632 @@
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="18">
         <v>37</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>76</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E7" s="11">
         <v>41</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="19">
+        <v>25740</v>
+      </c>
       <c r="G7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="18">
-        <v>37</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="13" t="s">
-        <v>132</v>
+        <v>118</v>
+      </c>
+      <c r="H7" s="16">
+        <v>52</v>
+      </c>
+      <c r="I7" s="17">
+        <v>32000</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="11">
         <v>41</v>
       </c>
       <c r="F8" s="19">
-        <v>25740</v>
+        <v>31423</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H8" s="16">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I8" s="17">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="E9" s="11">
         <v>41</v>
       </c>
-      <c r="F9" s="19">
-        <v>31423</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="16">
-        <v>37</v>
-      </c>
-      <c r="I9" s="17">
-        <v>35000</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E10" s="11">
         <v>41</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="18">
+        <v>45</v>
+      </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J10" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E11" s="11">
         <v>41</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H11" s="18">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>77</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="11">
         <v>41</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H12" s="18">
         <v>43</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>75</v>
+      <c r="I12" s="17">
+        <v>40000</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E13" s="11">
         <v>41</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="13" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="H13" s="18">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I13" s="17">
         <v>40000</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>17</v>
+      <c r="J13" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>42</v>
+        <v>109</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="E14" s="11">
         <v>41</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="13" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="H14" s="18">
-        <v>30</v>
-      </c>
-      <c r="I14" s="17">
-        <v>40000</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>79</v>
+        <v>51</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="13" t="s">
         <v>111</v>
       </c>
+      <c r="D15" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="E15" s="11">
         <v>41</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="18">
-        <v>51</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>112</v>
+      <c r="H15" s="16">
+        <v>33</v>
+      </c>
+      <c r="I15" s="28">
+        <v>66000</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="E16" s="11">
         <v>41</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="16">
-        <v>33</v>
-      </c>
-      <c r="I16" s="28">
-        <v>66000</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>63</v>
+      <c r="F16" s="19"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="18">
+        <v>50</v>
+      </c>
+      <c r="I16" s="17">
+        <v>45000</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E17" s="11">
         <v>41</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="19">
+        <v>29910</v>
+      </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="18">
-        <v>50</v>
+      <c r="H17" s="16">
+        <v>41</v>
       </c>
       <c r="I17" s="17">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E18" s="11">
         <v>41</v>
       </c>
-      <c r="F18" s="19">
-        <v>29910</v>
-      </c>
-      <c r="G18" s="13"/>
+      <c r="F18" s="27">
+        <v>32883</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="H18" s="16">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I18" s="17">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E19" s="11">
         <v>41</v>
       </c>
-      <c r="F19" s="27">
-        <v>32883</v>
+      <c r="F19" s="19">
+        <v>32986</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H19" s="16">
         <v>33</v>
       </c>
       <c r="I19" s="17">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>69</v>
+      <c r="A20" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>139</v>
+        <v>83</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E20" s="11">
         <v>41</v>
       </c>
       <c r="F20" s="19">
-        <v>32986</v>
+        <v>31172</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H20" s="16">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I20" s="17">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E21" s="11">
         <v>41</v>
       </c>
       <c r="F21" s="19">
-        <v>31172</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="16">
-        <v>37</v>
+        <v>30950</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="18">
+        <v>38</v>
       </c>
       <c r="I21" s="17">
         <v>40000</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="11"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="E22" s="11">
         <v>41</v>
       </c>
-      <c r="F22" s="19">
-        <v>30950</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="H22" s="18">
-        <v>38</v>
-      </c>
-      <c r="I22" s="17">
+        <v>46</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="11">
+        <v>41</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="11">
+        <v>41</v>
+      </c>
+      <c r="F24" s="19">
+        <v>30400</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="16">
+        <v>39</v>
+      </c>
+      <c r="I24" s="17">
         <v>40000</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="11">
-        <v>41</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="18">
-        <v>46</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
+      <c r="J24" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="11">
+        <v>41</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="18">
         <v>43</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="11">
-        <v>41</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="11">
-        <v>41</v>
-      </c>
-      <c r="F25" s="19">
-        <v>30400</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="16">
-        <v>39</v>
       </c>
       <c r="I25" s="17">
         <v>40000</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>53</v>
+      <c r="J25" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>65</v>
+      <c r="A26" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E26" s="11">
         <v>41</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="18">
-        <v>43</v>
+        <v>115</v>
+      </c>
+      <c r="H26" s="20">
+        <v>27</v>
       </c>
       <c r="I26" s="17">
-        <v>40000</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>126</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>67</v>
+      <c r="A27" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="E27" s="11">
         <v>41</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="20">
-        <v>27</v>
-      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="17">
-        <v>45000</v>
-      </c>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
-        <v>22</v>
+        <v>75000</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E28" s="11">
         <v>41</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="20"/>
+      <c r="H28" s="18">
+        <v>49</v>
+      </c>
       <c r="I28" s="17">
-        <v>75000</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>38</v>
+        <v>40000</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="11">
         <v>41</v>
@@ -1783,121 +1780,95 @@
       <c r="F29" s="19"/>
       <c r="G29" s="13"/>
       <c r="H29" s="18">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I29" s="17">
-        <v>40000</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>33</v>
+        <v>25000</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="E30" s="11">
         <v>41</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="18">
-        <v>31</v>
+      <c r="F30" s="19">
+        <v>25498</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="16">
+        <v>53</v>
       </c>
       <c r="I30" s="17">
-        <v>25000</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>137</v>
+        <v>62</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E31" s="11">
         <v>41</v>
       </c>
-      <c r="F31" s="19">
-        <v>25498</v>
-      </c>
+      <c r="F31" s="19"/>
       <c r="G31" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="16">
+        <v>57</v>
+      </c>
+      <c r="H31" s="18">
         <v>53</v>
       </c>
-      <c r="I31" s="17">
-        <v>50000</v>
-      </c>
+      <c r="I31" s="17"/>
       <c r="J31" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E32" s="11">
         <v>41</v>
       </c>
       <c r="F32" s="19"/>
-      <c r="G32" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="18">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="11">
-        <v>41</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="18">
-        <v>37</v>
-      </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="14" t="s">
-        <v>133</v>
+      <c r="J32" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1905,36 +1876,35 @@
     <sortCondition ref="A2:A39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
-    <hyperlink ref="D28" r:id="rId2"/>
-    <hyperlink ref="D18" r:id="rId3"/>
-    <hyperlink ref="D32" r:id="rId4"/>
-    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D27" r:id="rId2"/>
+    <hyperlink ref="D17" r:id="rId3"/>
+    <hyperlink ref="D31" r:id="rId4"/>
+    <hyperlink ref="D21" r:id="rId5"/>
     <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="D29" r:id="rId7"/>
-    <hyperlink ref="D25" r:id="rId8"/>
-    <hyperlink ref="D14" r:id="rId9"/>
-    <hyperlink ref="D24" r:id="rId10"/>
-    <hyperlink ref="D17" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D11" r:id="rId13"/>
-    <hyperlink ref="D27" r:id="rId14"/>
-    <hyperlink ref="D26" r:id="rId15"/>
-    <hyperlink ref="D8" r:id="rId16"/>
-    <hyperlink ref="D9" r:id="rId17"/>
-    <hyperlink ref="D20" r:id="rId18"/>
-    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D28" r:id="rId7"/>
+    <hyperlink ref="D24" r:id="rId8"/>
+    <hyperlink ref="D13" r:id="rId9"/>
+    <hyperlink ref="D23" r:id="rId10"/>
+    <hyperlink ref="D16" r:id="rId11"/>
+    <hyperlink ref="D20" r:id="rId12"/>
+    <hyperlink ref="D10" r:id="rId13"/>
+    <hyperlink ref="D26" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D7" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D18" r:id="rId19"/>
     <hyperlink ref="D5" r:id="rId20"/>
-    <hyperlink ref="D23" r:id="rId21"/>
-    <hyperlink ref="D12" r:id="rId22"/>
-    <hyperlink ref="D33" r:id="rId23"/>
-    <hyperlink ref="D7" r:id="rId24"/>
-    <hyperlink ref="D16" r:id="rId25"/>
-    <hyperlink ref="J16" r:id="rId26" display="https://www.credly.com/badges/35bbad25-c81c-4983-9717-256a0c61a62d/public_url"/>
-    <hyperlink ref="D31" r:id="rId27"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D11" r:id="rId22"/>
+    <hyperlink ref="D32" r:id="rId23"/>
+    <hyperlink ref="D15" r:id="rId24"/>
+    <hyperlink ref="J15" r:id="rId25" display="https://www.credly.com/badges/35bbad25-c81c-4983-9717-256a0c61a62d/public_url"/>
+    <hyperlink ref="D30" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
